--- a/Neural Network Dataset(1).xlsx
+++ b/Neural Network Dataset(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tferreira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3DB0F9B-28E1-48E6-B066-F609C2B106EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61C207E1-1AE8-4486-8B1B-86F196118DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5F0C4E99-8109-4425-B331-26CF3090552F}"/>
+    <workbookView xWindow="12255" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{5F0C4E99-8109-4425-B331-26CF3090552F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="114">
   <si>
     <t>Sample Number</t>
   </si>
@@ -763,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9BF77E-BE62-46B9-9F31-A0DA53FC6A1B}">
-  <dimension ref="A1:M322"/>
+  <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K317" sqref="K317"/>
+    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A322" sqref="A322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14262,6 +14262,826 @@
         <v>23.08</v>
       </c>
     </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" t="s">
+        <v>107</v>
+      </c>
+      <c r="C323">
+        <v>4</v>
+      </c>
+      <c r="D323" t="s">
+        <v>32</v>
+      </c>
+      <c r="E323" t="s">
+        <v>36</v>
+      </c>
+      <c r="F323" t="s">
+        <v>108</v>
+      </c>
+      <c r="G323" t="s">
+        <v>58</v>
+      </c>
+      <c r="H323">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I323">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J323" t="s">
+        <v>112</v>
+      </c>
+      <c r="K323" t="s">
+        <v>113</v>
+      </c>
+      <c r="L323" t="s">
+        <v>94</v>
+      </c>
+      <c r="M323">
+        <v>13.79</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" t="s">
+        <v>107</v>
+      </c>
+      <c r="C324">
+        <v>4</v>
+      </c>
+      <c r="D324" t="s">
+        <v>32</v>
+      </c>
+      <c r="E324" t="s">
+        <v>36</v>
+      </c>
+      <c r="F324" t="s">
+        <v>108</v>
+      </c>
+      <c r="G324" t="s">
+        <v>64</v>
+      </c>
+      <c r="H324">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I324">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J324" t="s">
+        <v>112</v>
+      </c>
+      <c r="K324" t="s">
+        <v>113</v>
+      </c>
+      <c r="L324" t="s">
+        <v>94</v>
+      </c>
+      <c r="M324">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" t="s">
+        <v>107</v>
+      </c>
+      <c r="C325">
+        <v>4</v>
+      </c>
+      <c r="D325" t="s">
+        <v>32</v>
+      </c>
+      <c r="E325" t="s">
+        <v>36</v>
+      </c>
+      <c r="F325" t="s">
+        <v>108</v>
+      </c>
+      <c r="G325" t="s">
+        <v>62</v>
+      </c>
+      <c r="H325">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I325">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J325" t="s">
+        <v>112</v>
+      </c>
+      <c r="K325" t="s">
+        <v>113</v>
+      </c>
+      <c r="L325" t="s">
+        <v>94</v>
+      </c>
+      <c r="M325">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" t="s">
+        <v>107</v>
+      </c>
+      <c r="C326">
+        <v>4</v>
+      </c>
+      <c r="D326" t="s">
+        <v>32</v>
+      </c>
+      <c r="E326" t="s">
+        <v>36</v>
+      </c>
+      <c r="F326" t="s">
+        <v>108</v>
+      </c>
+      <c r="G326" t="s">
+        <v>63</v>
+      </c>
+      <c r="H326">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I326">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J326" t="s">
+        <v>112</v>
+      </c>
+      <c r="K326" t="s">
+        <v>113</v>
+      </c>
+      <c r="L326" t="s">
+        <v>94</v>
+      </c>
+      <c r="M326">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>107</v>
+      </c>
+      <c r="C327">
+        <v>4</v>
+      </c>
+      <c r="D327" t="s">
+        <v>32</v>
+      </c>
+      <c r="E327" t="s">
+        <v>36</v>
+      </c>
+      <c r="F327" t="s">
+        <v>108</v>
+      </c>
+      <c r="G327" t="s">
+        <v>65</v>
+      </c>
+      <c r="H327">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I327">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J327" t="s">
+        <v>112</v>
+      </c>
+      <c r="K327" t="s">
+        <v>113</v>
+      </c>
+      <c r="L327" t="s">
+        <v>94</v>
+      </c>
+      <c r="M327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" t="s">
+        <v>107</v>
+      </c>
+      <c r="C328">
+        <v>4</v>
+      </c>
+      <c r="D328" t="s">
+        <v>32</v>
+      </c>
+      <c r="E328" t="s">
+        <v>36</v>
+      </c>
+      <c r="F328" t="s">
+        <v>108</v>
+      </c>
+      <c r="G328" t="s">
+        <v>59</v>
+      </c>
+      <c r="H328">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I328">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J328" t="s">
+        <v>112</v>
+      </c>
+      <c r="K328" t="s">
+        <v>113</v>
+      </c>
+      <c r="L328" t="s">
+        <v>94</v>
+      </c>
+      <c r="M328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" t="s">
+        <v>107</v>
+      </c>
+      <c r="C329">
+        <v>4</v>
+      </c>
+      <c r="D329" t="s">
+        <v>32</v>
+      </c>
+      <c r="E329" t="s">
+        <v>36</v>
+      </c>
+      <c r="F329" t="s">
+        <v>108</v>
+      </c>
+      <c r="G329" t="s">
+        <v>60</v>
+      </c>
+      <c r="H329">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I329">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J329" t="s">
+        <v>112</v>
+      </c>
+      <c r="K329" t="s">
+        <v>113</v>
+      </c>
+      <c r="L329" t="s">
+        <v>94</v>
+      </c>
+      <c r="M329">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" t="s">
+        <v>107</v>
+      </c>
+      <c r="C330">
+        <v>4</v>
+      </c>
+      <c r="D330" t="s">
+        <v>32</v>
+      </c>
+      <c r="E330" t="s">
+        <v>69</v>
+      </c>
+      <c r="F330" t="s">
+        <v>108</v>
+      </c>
+      <c r="G330" t="s">
+        <v>51</v>
+      </c>
+      <c r="H330">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I330">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J330" t="s">
+        <v>66</v>
+      </c>
+      <c r="K330" t="s">
+        <v>113</v>
+      </c>
+      <c r="L330" t="s">
+        <v>94</v>
+      </c>
+      <c r="M330">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" t="s">
+        <v>107</v>
+      </c>
+      <c r="C331">
+        <v>4</v>
+      </c>
+      <c r="D331" t="s">
+        <v>32</v>
+      </c>
+      <c r="E331" t="s">
+        <v>69</v>
+      </c>
+      <c r="F331" t="s">
+        <v>108</v>
+      </c>
+      <c r="G331" t="s">
+        <v>54</v>
+      </c>
+      <c r="H331">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I331">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J331" t="s">
+        <v>66</v>
+      </c>
+      <c r="K331" t="s">
+        <v>113</v>
+      </c>
+      <c r="L331" t="s">
+        <v>94</v>
+      </c>
+      <c r="M331">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" t="s">
+        <v>107</v>
+      </c>
+      <c r="C332">
+        <v>4</v>
+      </c>
+      <c r="D332" t="s">
+        <v>32</v>
+      </c>
+      <c r="E332" t="s">
+        <v>69</v>
+      </c>
+      <c r="F332" t="s">
+        <v>108</v>
+      </c>
+      <c r="G332" t="s">
+        <v>55</v>
+      </c>
+      <c r="H332">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I332">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J332" t="s">
+        <v>109</v>
+      </c>
+      <c r="K332" t="s">
+        <v>113</v>
+      </c>
+      <c r="L332" t="s">
+        <v>94</v>
+      </c>
+      <c r="M332">
+        <v>36.36</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" t="s">
+        <v>107</v>
+      </c>
+      <c r="C333">
+        <v>4</v>
+      </c>
+      <c r="D333" t="s">
+        <v>32</v>
+      </c>
+      <c r="E333" t="s">
+        <v>69</v>
+      </c>
+      <c r="F333" t="s">
+        <v>108</v>
+      </c>
+      <c r="G333" t="s">
+        <v>56</v>
+      </c>
+      <c r="H333">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I333">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J333" t="s">
+        <v>110</v>
+      </c>
+      <c r="K333" t="s">
+        <v>113</v>
+      </c>
+      <c r="L333" t="s">
+        <v>94</v>
+      </c>
+      <c r="M333">
+        <v>38.46</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" t="s">
+        <v>107</v>
+      </c>
+      <c r="C334">
+        <v>4</v>
+      </c>
+      <c r="D334" t="s">
+        <v>32</v>
+      </c>
+      <c r="E334" t="s">
+        <v>69</v>
+      </c>
+      <c r="F334" t="s">
+        <v>108</v>
+      </c>
+      <c r="G334" t="s">
+        <v>57</v>
+      </c>
+      <c r="H334">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I334">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J334" t="s">
+        <v>111</v>
+      </c>
+      <c r="K334" t="s">
+        <v>113</v>
+      </c>
+      <c r="L334" t="s">
+        <v>94</v>
+      </c>
+      <c r="M334">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" t="s">
+        <v>107</v>
+      </c>
+      <c r="C335">
+        <v>4</v>
+      </c>
+      <c r="D335" t="s">
+        <v>32</v>
+      </c>
+      <c r="E335" t="s">
+        <v>69</v>
+      </c>
+      <c r="F335" t="s">
+        <v>108</v>
+      </c>
+      <c r="G335" t="s">
+        <v>17</v>
+      </c>
+      <c r="H335">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I335">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J335" t="s">
+        <v>112</v>
+      </c>
+      <c r="K335" t="s">
+        <v>113</v>
+      </c>
+      <c r="L335" t="s">
+        <v>94</v>
+      </c>
+      <c r="M335">
+        <v>27.27</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" t="s">
+        <v>107</v>
+      </c>
+      <c r="C336">
+        <v>4</v>
+      </c>
+      <c r="D336" t="s">
+        <v>32</v>
+      </c>
+      <c r="E336" t="s">
+        <v>69</v>
+      </c>
+      <c r="F336" t="s">
+        <v>108</v>
+      </c>
+      <c r="G336" t="s">
+        <v>58</v>
+      </c>
+      <c r="H336">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I336">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J336" t="s">
+        <v>112</v>
+      </c>
+      <c r="K336" t="s">
+        <v>113</v>
+      </c>
+      <c r="L336" t="s">
+        <v>94</v>
+      </c>
+      <c r="M336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" t="s">
+        <v>107</v>
+      </c>
+      <c r="C337">
+        <v>4</v>
+      </c>
+      <c r="D337" t="s">
+        <v>32</v>
+      </c>
+      <c r="E337" t="s">
+        <v>69</v>
+      </c>
+      <c r="F337" t="s">
+        <v>108</v>
+      </c>
+      <c r="G337" t="s">
+        <v>64</v>
+      </c>
+      <c r="H337">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I337">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J337" t="s">
+        <v>112</v>
+      </c>
+      <c r="K337" t="s">
+        <v>113</v>
+      </c>
+      <c r="L337" t="s">
+        <v>94</v>
+      </c>
+      <c r="M337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" t="s">
+        <v>107</v>
+      </c>
+      <c r="C338">
+        <v>4</v>
+      </c>
+      <c r="D338" t="s">
+        <v>32</v>
+      </c>
+      <c r="E338" t="s">
+        <v>69</v>
+      </c>
+      <c r="F338" t="s">
+        <v>108</v>
+      </c>
+      <c r="G338" t="s">
+        <v>62</v>
+      </c>
+      <c r="H338">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I338">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J338" t="s">
+        <v>112</v>
+      </c>
+      <c r="K338" t="s">
+        <v>113</v>
+      </c>
+      <c r="L338" t="s">
+        <v>94</v>
+      </c>
+      <c r="M338">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" t="s">
+        <v>107</v>
+      </c>
+      <c r="C339">
+        <v>4</v>
+      </c>
+      <c r="D339" t="s">
+        <v>32</v>
+      </c>
+      <c r="E339" t="s">
+        <v>69</v>
+      </c>
+      <c r="F339" t="s">
+        <v>108</v>
+      </c>
+      <c r="G339" t="s">
+        <v>63</v>
+      </c>
+      <c r="H339">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I339">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J339" t="s">
+        <v>112</v>
+      </c>
+      <c r="K339" t="s">
+        <v>113</v>
+      </c>
+      <c r="L339" t="s">
+        <v>94</v>
+      </c>
+      <c r="M339">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" t="s">
+        <v>107</v>
+      </c>
+      <c r="C340">
+        <v>4</v>
+      </c>
+      <c r="D340" t="s">
+        <v>32</v>
+      </c>
+      <c r="E340" t="s">
+        <v>69</v>
+      </c>
+      <c r="F340" t="s">
+        <v>108</v>
+      </c>
+      <c r="G340" t="s">
+        <v>65</v>
+      </c>
+      <c r="H340">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I340">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J340" t="s">
+        <v>112</v>
+      </c>
+      <c r="K340" t="s">
+        <v>113</v>
+      </c>
+      <c r="L340" t="s">
+        <v>94</v>
+      </c>
+      <c r="M340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" t="s">
+        <v>107</v>
+      </c>
+      <c r="C341">
+        <v>4</v>
+      </c>
+      <c r="D341" t="s">
+        <v>32</v>
+      </c>
+      <c r="E341" t="s">
+        <v>69</v>
+      </c>
+      <c r="F341" t="s">
+        <v>108</v>
+      </c>
+      <c r="G341" t="s">
+        <v>59</v>
+      </c>
+      <c r="H341">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I341">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J341" t="s">
+        <v>112</v>
+      </c>
+      <c r="K341" t="s">
+        <v>113</v>
+      </c>
+      <c r="L341" t="s">
+        <v>94</v>
+      </c>
+      <c r="M341">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" t="s">
+        <v>107</v>
+      </c>
+      <c r="C342">
+        <v>4</v>
+      </c>
+      <c r="D342" t="s">
+        <v>32</v>
+      </c>
+      <c r="E342" t="s">
+        <v>69</v>
+      </c>
+      <c r="F342" t="s">
+        <v>108</v>
+      </c>
+      <c r="G342" t="s">
+        <v>60</v>
+      </c>
+      <c r="H342">
+        <v>1.4250000000000001E-3</v>
+      </c>
+      <c r="I342">
+        <v>5.6999999999999996E-6</v>
+      </c>
+      <c r="J342" t="s">
+        <v>112</v>
+      </c>
+      <c r="K342" t="s">
+        <v>113</v>
+      </c>
+      <c r="L342" t="s">
+        <v>94</v>
+      </c>
+      <c r="M342">
+        <v>9.09</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
